--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9760896592027298</v>
+        <v>0.9760651365443701</v>
       </c>
       <c r="E2">
-        <v>0.9760896592027298</v>
+        <v>0.9760651365443701</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0008758038735596351</v>
+        <v>0.0008767369200694406</v>
       </c>
       <c r="E3">
-        <v>0.0008758038735596351</v>
+        <v>0.0008767369200694406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.239792634671474E-07</v>
+        <v>2.21430202328957E-07</v>
       </c>
       <c r="E4">
-        <v>2.239792634671474E-07</v>
+        <v>2.21430202328957E-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0466720529441611</v>
+        <v>0.04669839077504559</v>
       </c>
       <c r="E5">
-        <v>0.0466720529441611</v>
+        <v>0.04669839077504559</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.02818089592752725</v>
+        <v>0.02820176840094267</v>
       </c>
       <c r="E6">
-        <v>0.02818089592752725</v>
+        <v>0.02820176840094267</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9842005278062028</v>
+        <v>0.9201591902079308</v>
       </c>
       <c r="E7">
-        <v>0.01579947219379718</v>
+        <v>0.0798408097920692</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9852799040410514</v>
+        <v>0.9986807543737852</v>
       </c>
       <c r="E8">
-        <v>0.01472009595894863</v>
+        <v>0.001319245626214771</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.984325569825905</v>
+        <v>0.9881542603680785</v>
       </c>
       <c r="E9">
-        <v>0.01567443017409498</v>
+        <v>0.01184573963192148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9823389806002591</v>
+        <v>0.005916427891686241</v>
       </c>
       <c r="E10">
-        <v>0.01766101939974085</v>
+        <v>0.9940835721083138</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9834124225661536</v>
+        <v>0.9999999999968905</v>
       </c>
       <c r="E11">
-        <v>0.01658757743384642</v>
+        <v>3.109512647370138E-12</v>
       </c>
       <c r="F11">
-        <v>0.3891801238059998</v>
+        <v>0.9036194682121277</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.09801096071835172</v>
+        <v>0.09798846133708677</v>
       </c>
       <c r="E12">
-        <v>0.09801096071835172</v>
+        <v>0.09798846133708677</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.03778840090709398</v>
+        <v>0.03774579447639134</v>
       </c>
       <c r="E13">
-        <v>0.03778840090709398</v>
+        <v>0.03774579447639134</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.70391324101977E-11</v>
+        <v>1.767554015041807E-11</v>
       </c>
       <c r="E14">
-        <v>1.70391324101977E-11</v>
+        <v>1.767554015041807E-11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.00132446306288512</v>
+        <v>0.001324769182455452</v>
       </c>
       <c r="E15">
-        <v>0.00132446306288512</v>
+        <v>0.001324769182455452</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.2375831279290006</v>
+        <v>0.2402164219804923</v>
       </c>
       <c r="E16">
-        <v>0.2375831279290006</v>
+        <v>0.2402164219804923</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9968667169922915</v>
+        <v>0.9721986844556426</v>
       </c>
       <c r="E17">
-        <v>0.003133283007708543</v>
+        <v>0.02780131554435739</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9973772584210234</v>
+        <v>4.565609026614126E-11</v>
       </c>
       <c r="E18">
-        <v>0.002622741578976573</v>
+        <v>0.9999999999543439</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.997056676697765</v>
+        <v>0.9969968680005488</v>
       </c>
       <c r="E19">
-        <v>0.002943323302235012</v>
+        <v>0.003003131999451236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9962490974884439</v>
+        <v>0.1100967988841226</v>
       </c>
       <c r="E20">
-        <v>0.003750902511556076</v>
+        <v>0.8899032011158774</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9970460439902272</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.002953956009772774</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.04296883195638657</v>
+        <v>2.64651346206665</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
